--- a/Result_data/Kmeans_DE_KNN_10_6.xlsx
+++ b/Result_data/Kmeans_DE_KNN_10_6.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Run Time" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$2:$I$306</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="8">
   <si>
     <t>class</t>
   </si>
@@ -361,13 +364,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I306"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:BT370"/>
   <sheetViews>
-    <sheetView topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="B312" sqref="B312"/>
+    <sheetView tabSelected="1" topLeftCell="C161" workbookViewId="0">
+      <selection activeCell="L311" sqref="L311:BT311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -385,8 +392,17 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -403,7 +419,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -420,7 +436,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -466,7 +482,7 @@
         <v>0.91850000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -483,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -500,7 +516,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -517,7 +533,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -563,7 +579,7 @@
         <v>0.8587499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -580,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -597,7 +613,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -614,7 +630,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -660,7 +676,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -677,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -694,7 +710,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -711,7 +727,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -757,7 +773,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -774,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -791,7 +807,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -808,7 +824,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -854,7 +870,7 @@
         <v>0.871</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -871,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -888,7 +904,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -905,7 +921,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -951,7 +967,7 @@
         <v>0.92549999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -968,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -985,7 +1001,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1002,7 +1018,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1048,7 +1064,7 @@
         <v>0.92675000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1082,7 +1098,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1099,7 +1115,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1145,7 +1161,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1162,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1179,7 +1195,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1196,7 +1212,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1242,7 +1258,7 @@
         <v>0.93024999999999991</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1276,7 +1292,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1293,7 +1309,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1339,7 +1355,7 @@
         <v>0.88175000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1373,7 +1389,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1390,7 +1406,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1436,7 +1452,7 @@
         <v>0.8982500000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1470,7 +1486,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1487,7 +1503,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1533,7 +1549,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1567,7 +1583,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -1584,7 +1600,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1630,7 +1646,7 @@
         <v>0.91675000000000006</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1664,7 +1680,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -1681,7 +1697,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1727,7 +1743,7 @@
         <v>0.89250000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1761,7 +1777,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1778,7 +1794,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -1824,7 +1840,7 @@
         <v>0.91499999999999992</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -1841,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -1858,7 +1874,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -1875,7 +1891,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1921,7 +1937,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +1954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -1955,7 +1971,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -1972,7 +1988,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -2018,7 +2034,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2052,7 +2068,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2069,7 +2085,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2115,7 +2131,7 @@
         <v>0.88775000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2149,7 +2165,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2166,7 +2182,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -2212,7 +2228,7 @@
         <v>0.91124999999999989</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2246,7 +2262,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2263,7 +2279,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2309,7 +2325,7 @@
         <v>0.88200000000000012</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +2342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -2343,7 +2359,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2360,7 +2376,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -2406,7 +2422,7 @@
         <v>0.91849999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -2440,7 +2456,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -2457,7 +2473,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -2503,7 +2519,7 @@
         <v>0.88125000000000009</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -2537,7 +2553,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -2554,7 +2570,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -2600,7 +2616,7 @@
         <v>0.83925000000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -2634,7 +2650,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -2651,7 +2667,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -2697,7 +2713,7 @@
         <v>0.92249999999999988</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -2714,7 +2730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -2731,7 +2747,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -2748,7 +2764,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -2794,7 +2810,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -2811,7 +2827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -2828,7 +2844,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2</v>
       </c>
@@ -2845,7 +2861,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -2891,7 +2907,7 @@
         <v>0.92599999999999993</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -2925,7 +2941,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2</v>
       </c>
@@ -2942,7 +2958,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -2988,7 +3004,7 @@
         <v>0.90125</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3022,7 +3038,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2</v>
       </c>
@@ -3039,7 +3055,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -3085,7 +3101,7 @@
         <v>0.91725000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -3119,7 +3135,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -3136,7 +3152,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -3182,7 +3198,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -3199,7 +3215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -3216,7 +3232,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2</v>
       </c>
@@ -3233,7 +3249,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -3279,7 +3295,7 @@
         <v>0.81700000000000006</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -3313,7 +3329,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2</v>
       </c>
@@ -3330,7 +3346,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3</v>
       </c>
@@ -3376,7 +3392,7 @@
         <v>0.92674999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -3393,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3410,7 +3426,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2</v>
       </c>
@@ -3427,7 +3443,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3</v>
       </c>
@@ -3473,7 +3489,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -3490,7 +3506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -3507,7 +3523,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2</v>
       </c>
@@ -3524,7 +3540,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3</v>
       </c>
@@ -3570,7 +3586,7 @@
         <v>0.87250000000000005</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -3587,7 +3603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -3604,7 +3620,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2</v>
       </c>
@@ -3621,7 +3637,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3</v>
       </c>
@@ -3667,7 +3683,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -3684,7 +3700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -3701,7 +3717,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2</v>
       </c>
@@ -3718,7 +3734,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3</v>
       </c>
@@ -3764,7 +3780,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -3798,7 +3814,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2</v>
       </c>
@@ -3815,7 +3831,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -3861,7 +3877,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -3878,7 +3894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -3895,7 +3911,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2</v>
       </c>
@@ -3912,7 +3928,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3</v>
       </c>
@@ -3958,7 +3974,7 @@
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -3975,7 +3991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -3992,7 +4008,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2</v>
       </c>
@@ -4009,7 +4025,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3</v>
       </c>
@@ -4055,7 +4071,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -4072,7 +4088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4089,7 +4105,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2</v>
       </c>
@@ -4106,7 +4122,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3</v>
       </c>
@@ -4152,7 +4168,7 @@
         <v>0.89575000000000005</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -4169,7 +4185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -4186,7 +4202,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2</v>
       </c>
@@ -4203,7 +4219,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3</v>
       </c>
@@ -4249,7 +4265,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -4266,7 +4282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -4283,7 +4299,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2</v>
       </c>
@@ -4300,7 +4316,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3</v>
       </c>
@@ -4346,7 +4362,7 @@
         <v>0.87375000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -4363,7 +4379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -4380,7 +4396,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2</v>
       </c>
@@ -4397,7 +4413,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3</v>
       </c>
@@ -4443,7 +4459,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -4460,7 +4476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -4477,7 +4493,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2</v>
       </c>
@@ -4494,7 +4510,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>3</v>
       </c>
@@ -4540,7 +4556,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -4574,7 +4590,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2</v>
       </c>
@@ -4591,7 +4607,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>3</v>
       </c>
@@ -4637,7 +4653,7 @@
         <v>0.89949999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -4654,7 +4670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -4671,7 +4687,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2</v>
       </c>
@@ -4688,7 +4704,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>3</v>
       </c>
@@ -4734,7 +4750,7 @@
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +4767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -4768,7 +4784,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2</v>
       </c>
@@ -4785,7 +4801,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>3</v>
       </c>
@@ -4831,7 +4847,7 @@
         <v>0.84450000000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -4848,7 +4864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -4865,7 +4881,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2</v>
       </c>
@@ -4882,7 +4898,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>3</v>
       </c>
@@ -4928,7 +4944,7 @@
         <v>0.91175000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -4945,7 +4961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -4962,7 +4978,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2</v>
       </c>
@@ -4979,7 +4995,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>3</v>
       </c>
@@ -5025,7 +5041,7 @@
         <v>0.88824999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -5042,7 +5058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -5059,7 +5075,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2</v>
       </c>
@@ -5076,7 +5092,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>3</v>
       </c>
@@ -5122,7 +5138,7 @@
         <v>0.91399999999999992</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -5139,7 +5155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5156,7 +5172,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2</v>
       </c>
@@ -5173,7 +5189,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>3</v>
       </c>
@@ -5219,7 +5235,7 @@
         <v>0.89950000000000008</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -5236,7 +5252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -5253,7 +5269,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2</v>
       </c>
@@ -5270,7 +5286,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>3</v>
       </c>
@@ -5316,7 +5332,7 @@
         <v>0.88575000000000004</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -5333,7 +5349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
@@ -5350,7 +5366,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -5367,7 +5383,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>3</v>
       </c>
@@ -5413,7 +5429,7 @@
         <v>0.86825000000000008</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -5430,7 +5446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1</v>
       </c>
@@ -5447,7 +5463,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
@@ -5464,7 +5480,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3</v>
       </c>
@@ -5510,7 +5526,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -5527,7 +5543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -5544,7 +5560,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -5561,7 +5577,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>3</v>
       </c>
@@ -5607,7 +5623,7 @@
         <v>0.85075000000000012</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -5624,7 +5640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1</v>
       </c>
@@ -5641,7 +5657,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2</v>
       </c>
@@ -5658,7 +5674,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3</v>
       </c>
@@ -5704,7 +5720,7 @@
         <v>0.91549999999999998</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -5721,7 +5737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1</v>
       </c>
@@ -5738,7 +5754,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -5755,7 +5771,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>3</v>
       </c>
@@ -5801,7 +5817,7 @@
         <v>0.89849999999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -5818,7 +5834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1</v>
       </c>
@@ -5835,7 +5851,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -5852,7 +5868,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3</v>
       </c>
@@ -5898,7 +5914,7 @@
         <v>0.89124999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -5915,7 +5931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1</v>
       </c>
@@ -5932,7 +5948,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -5949,7 +5965,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3</v>
       </c>
@@ -5995,7 +6011,7 @@
         <v>0.88875000000000004</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -6012,7 +6028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1</v>
       </c>
@@ -6029,7 +6045,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6046,7 +6062,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>3</v>
       </c>
@@ -6092,7 +6108,7 @@
         <v>0.82525000000000004</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -6109,7 +6125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -6126,7 +6142,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6143,7 +6159,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3</v>
       </c>
@@ -6189,7 +6205,7 @@
         <v>0.88824999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -6206,7 +6222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
@@ -6223,7 +6239,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6240,7 +6256,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3</v>
       </c>
@@ -6257,7 +6273,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>4</v>
       </c>
@@ -6286,7 +6302,874 @@
         <v>0.89349999999999996</v>
       </c>
     </row>
+    <row r="307" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="J307">
+        <v>0.91975000000000007</v>
+      </c>
+      <c r="L307">
+        <v>0.91974999999999996</v>
+      </c>
+      <c r="M307">
+        <v>0.86124999999999996</v>
+      </c>
+      <c r="N307">
+        <v>0.87075000000000002</v>
+      </c>
+      <c r="O307">
+        <v>0.90625</v>
+      </c>
+      <c r="P307">
+        <v>0.87975000000000003</v>
+      </c>
+      <c r="Q307">
+        <v>0.92725000000000002</v>
+      </c>
+      <c r="R307">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="S307">
+        <v>0.92425000000000002</v>
+      </c>
+      <c r="T307">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="U307">
+        <v>0.88624999999999998</v>
+      </c>
+      <c r="V307">
+        <v>0.90074999999999994</v>
+      </c>
+      <c r="W307">
+        <v>0.8347500000000001</v>
+      </c>
+      <c r="X307">
+        <v>0.91825000000000001</v>
+      </c>
+      <c r="Y307">
+        <v>0.8952500000000001</v>
+      </c>
+      <c r="Z307">
+        <v>0.91625000000000001</v>
+      </c>
+      <c r="AA307">
+        <v>0.91550000000000009</v>
+      </c>
+      <c r="AB307">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="AC307">
+        <v>0.89</v>
+      </c>
+      <c r="AD307">
+        <v>0.91274999999999995</v>
+      </c>
+      <c r="AE307">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="AF307">
+        <v>0.92</v>
+      </c>
+      <c r="AG307">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AH307">
+        <v>0.84424999999999994</v>
+      </c>
+      <c r="AI307">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="AJ307">
+        <v>0.92375000000000007</v>
+      </c>
+      <c r="AK307">
+        <v>0.92724999999999991</v>
+      </c>
+      <c r="AL307">
+        <v>0.90550000000000008</v>
+      </c>
+      <c r="AM307">
+        <v>0.91850000000000009</v>
+      </c>
+      <c r="AN307">
+        <v>0.92425000000000002</v>
+      </c>
+      <c r="AO307">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="AP307">
+        <v>0.92874999999999996</v>
+      </c>
+      <c r="AQ307">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AR307">
+        <v>0.87650000000000006</v>
+      </c>
+      <c r="AS307">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="AT307">
+        <v>0.91975000000000007</v>
+      </c>
+      <c r="AU307">
+        <v>0.89624999999999988</v>
+      </c>
+      <c r="AV307">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="AW307">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="AX307">
+        <v>0.89649999999999996</v>
+      </c>
+      <c r="AY307">
+        <v>0.88800000000000012</v>
+      </c>
+      <c r="AZ307">
+        <v>0.87650000000000006</v>
+      </c>
+      <c r="BA307">
+        <v>0.9245000000000001</v>
+      </c>
+      <c r="BB307">
+        <v>0.92175000000000007</v>
+      </c>
+      <c r="BC307">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="BD307">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="BE307">
+        <v>0.84999999999999987</v>
+      </c>
+      <c r="BF307">
+        <v>0.91325000000000001</v>
+      </c>
+      <c r="BG307">
+        <v>0.89150000000000007</v>
+      </c>
+      <c r="BH307">
+        <v>0.91599999999999993</v>
+      </c>
+      <c r="BI307">
+        <v>0.90225000000000011</v>
+      </c>
+      <c r="BJ307">
+        <v>0.8882500000000001</v>
+      </c>
+      <c r="BK307">
+        <v>0.86949999999999994</v>
+      </c>
+      <c r="BL307">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="BM307">
+        <v>0.85375000000000001</v>
+      </c>
+      <c r="BN307">
+        <v>0.91825000000000001</v>
+      </c>
+      <c r="BO307">
+        <v>0.89874999999999994</v>
+      </c>
+      <c r="BP307">
+        <v>0.89524999999999999</v>
+      </c>
+      <c r="BQ307">
+        <v>0.88950000000000007</v>
+      </c>
+      <c r="BR307">
+        <v>0.82874999999999988</v>
+      </c>
+      <c r="BS307">
+        <v>0.8892500000000001</v>
+      </c>
+      <c r="BT307">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="J308">
+        <v>0.86124999999999996</v>
+      </c>
+    </row>
+    <row r="309" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="J309">
+        <v>0.87075000000000002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E310">
+        <v>0.91850000000000009</v>
+      </c>
+      <c r="J310">
+        <v>0.90625</v>
+      </c>
+    </row>
+    <row r="311" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E311">
+        <v>0.8587499999999999</v>
+      </c>
+      <c r="J311">
+        <v>0.87975000000000003</v>
+      </c>
+      <c r="L311">
+        <v>0.91850000000000009</v>
+      </c>
+      <c r="M311">
+        <v>0.8587499999999999</v>
+      </c>
+      <c r="N311">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="O311">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="P311">
+        <v>0.871</v>
+      </c>
+      <c r="Q311">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="R311">
+        <v>0.92675000000000007</v>
+      </c>
+      <c r="S311">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="T311">
+        <v>0.93024999999999991</v>
+      </c>
+      <c r="U311">
+        <v>0.88175000000000003</v>
+      </c>
+      <c r="V311">
+        <v>0.8982500000000001</v>
+      </c>
+      <c r="W311">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="X311">
+        <v>0.91675000000000006</v>
+      </c>
+      <c r="Y311">
+        <v>0.89250000000000007</v>
+      </c>
+      <c r="Z311">
+        <v>0.91499999999999992</v>
+      </c>
+      <c r="AA311">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="AB311">
+        <v>0.879</v>
+      </c>
+      <c r="AC311">
+        <v>0.88775000000000004</v>
+      </c>
+      <c r="AD311">
+        <v>0.91124999999999989</v>
+      </c>
+      <c r="AE311">
+        <v>0.88200000000000012</v>
+      </c>
+      <c r="AF311">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="AG311">
+        <v>0.88125000000000009</v>
+      </c>
+      <c r="AH311">
+        <v>0.83925000000000005</v>
+      </c>
+      <c r="AI311">
+        <v>0.92249999999999988</v>
+      </c>
+      <c r="AJ311">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="AK311">
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="AL311">
+        <v>0.90125</v>
+      </c>
+      <c r="AM311">
+        <v>0.91725000000000001</v>
+      </c>
+      <c r="AN311">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="AO311">
+        <v>0.81700000000000006</v>
+      </c>
+      <c r="AP311">
+        <v>0.92674999999999996</v>
+      </c>
+      <c r="AQ311">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="AR311">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="AS311">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="AT311">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="AU311">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="AV311">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="AW311">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="AX311">
+        <v>0.89575000000000005</v>
+      </c>
+      <c r="AY311">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="AZ311">
+        <v>0.87375000000000003</v>
+      </c>
+      <c r="BA311">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="BB311">
+        <v>0.92</v>
+      </c>
+      <c r="BC311">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="BD311">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="BE311">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="BF311">
+        <v>0.91175000000000006</v>
+      </c>
+      <c r="BG311">
+        <v>0.88824999999999998</v>
+      </c>
+      <c r="BH311">
+        <v>0.91399999999999992</v>
+      </c>
+      <c r="BI311">
+        <v>0.89950000000000008</v>
+      </c>
+      <c r="BJ311">
+        <v>0.88575000000000004</v>
+      </c>
+      <c r="BK311">
+        <v>0.86825000000000008</v>
+      </c>
+      <c r="BL311">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="BM311">
+        <v>0.85075000000000012</v>
+      </c>
+      <c r="BN311">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="BO311">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="BP311">
+        <v>0.89124999999999999</v>
+      </c>
+      <c r="BQ311">
+        <v>0.88875000000000004</v>
+      </c>
+      <c r="BR311">
+        <v>0.82525000000000004</v>
+      </c>
+      <c r="BS311">
+        <v>0.88824999999999998</v>
+      </c>
+      <c r="BT311">
+        <v>0.89349999999999996</v>
+      </c>
+    </row>
+    <row r="312" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E312">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="J312">
+        <v>0.92725000000000002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E313">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J313">
+        <v>0.92749999999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E314">
+        <v>0.871</v>
+      </c>
+      <c r="J314">
+        <v>0.92425000000000002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E315">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="J315">
+        <v>0.93149999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E316">
+        <v>0.92675000000000007</v>
+      </c>
+      <c r="J316">
+        <v>0.88624999999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E317">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="J317">
+        <v>0.90074999999999994</v>
+      </c>
+    </row>
+    <row r="318" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E318">
+        <v>0.93024999999999991</v>
+      </c>
+      <c r="J318">
+        <v>0.8347500000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E319">
+        <v>0.88175000000000003</v>
+      </c>
+      <c r="J319">
+        <v>0.91825000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E320">
+        <v>0.8982500000000001</v>
+      </c>
+      <c r="J320">
+        <v>0.8952500000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E321">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="J321">
+        <v>0.91625000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E322">
+        <v>0.91675000000000006</v>
+      </c>
+      <c r="J322">
+        <v>0.91550000000000009</v>
+      </c>
+    </row>
+    <row r="323" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E323">
+        <v>0.89250000000000007</v>
+      </c>
+      <c r="J323">
+        <v>0.87949999999999995</v>
+      </c>
+    </row>
+    <row r="324" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E324">
+        <v>0.91499999999999992</v>
+      </c>
+      <c r="J324">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="325" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E325">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="J325">
+        <v>0.91274999999999995</v>
+      </c>
+    </row>
+    <row r="326" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E326">
+        <v>0.879</v>
+      </c>
+      <c r="J326">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E327">
+        <v>0.88775000000000004</v>
+      </c>
+      <c r="J327">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="328" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E328">
+        <v>0.91124999999999989</v>
+      </c>
+      <c r="J328">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E329">
+        <v>0.88200000000000012</v>
+      </c>
+      <c r="J329">
+        <v>0.84424999999999994</v>
+      </c>
+    </row>
+    <row r="330" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E330">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="J330">
+        <v>0.92449999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E331">
+        <v>0.88125000000000009</v>
+      </c>
+      <c r="J331">
+        <v>0.92375000000000007</v>
+      </c>
+    </row>
+    <row r="332" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E332">
+        <v>0.83925000000000005</v>
+      </c>
+      <c r="J332">
+        <v>0.92724999999999991</v>
+      </c>
+    </row>
+    <row r="333" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E333">
+        <v>0.92249999999999988</v>
+      </c>
+      <c r="J333">
+        <v>0.90550000000000008</v>
+      </c>
+    </row>
+    <row r="334" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E334">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="J334">
+        <v>0.91850000000000009</v>
+      </c>
+    </row>
+    <row r="335" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E335">
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="J335">
+        <v>0.92425000000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E336">
+        <v>0.90125</v>
+      </c>
+      <c r="J336">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="337" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E337">
+        <v>0.91725000000000001</v>
+      </c>
+      <c r="J337">
+        <v>0.92874999999999996</v>
+      </c>
+    </row>
+    <row r="338" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E338">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="J338">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="339" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E339">
+        <v>0.81700000000000006</v>
+      </c>
+      <c r="J339">
+        <v>0.87650000000000006</v>
+      </c>
+    </row>
+    <row r="340" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E340">
+        <v>0.92674999999999996</v>
+      </c>
+      <c r="J340">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="341" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E341">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="J341">
+        <v>0.91975000000000007</v>
+      </c>
+    </row>
+    <row r="342" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E342">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="J342">
+        <v>0.89624999999999988</v>
+      </c>
+    </row>
+    <row r="343" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E343">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="J343">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E344">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J344">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E345">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="J345">
+        <v>0.89649999999999996</v>
+      </c>
+    </row>
+    <row r="346" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E346">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="J346">
+        <v>0.88800000000000012</v>
+      </c>
+    </row>
+    <row r="347" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E347">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="J347">
+        <v>0.87650000000000006</v>
+      </c>
+    </row>
+    <row r="348" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E348">
+        <v>0.89575000000000005</v>
+      </c>
+      <c r="J348">
+        <v>0.9245000000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E349">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="J349">
+        <v>0.92175000000000007</v>
+      </c>
+    </row>
+    <row r="350" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E350">
+        <v>0.87375000000000003</v>
+      </c>
+      <c r="J350">
+        <v>0.90149999999999997</v>
+      </c>
+    </row>
+    <row r="351" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E351">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="J351">
+        <v>0.85250000000000004</v>
+      </c>
+    </row>
+    <row r="352" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E352">
+        <v>0.92</v>
+      </c>
+      <c r="J352">
+        <v>0.84999999999999987</v>
+      </c>
+    </row>
+    <row r="353" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E353">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="J353">
+        <v>0.91325000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E354">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="J354">
+        <v>0.89150000000000007</v>
+      </c>
+    </row>
+    <row r="355" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E355">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="J355">
+        <v>0.91599999999999993</v>
+      </c>
+    </row>
+    <row r="356" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E356">
+        <v>0.91175000000000006</v>
+      </c>
+      <c r="J356">
+        <v>0.90225000000000011</v>
+      </c>
+    </row>
+    <row r="357" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E357">
+        <v>0.88824999999999998</v>
+      </c>
+      <c r="J357">
+        <v>0.8882500000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E358">
+        <v>0.91399999999999992</v>
+      </c>
+      <c r="J358">
+        <v>0.86949999999999994</v>
+      </c>
+    </row>
+    <row r="359" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E359">
+        <v>0.89950000000000008</v>
+      </c>
+      <c r="J359">
+        <v>0.86250000000000004</v>
+      </c>
+    </row>
+    <row r="360" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E360">
+        <v>0.88575000000000004</v>
+      </c>
+      <c r="J360">
+        <v>0.85375000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E361">
+        <v>0.86825000000000008</v>
+      </c>
+      <c r="J361">
+        <v>0.91825000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E362">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J362">
+        <v>0.89874999999999994</v>
+      </c>
+    </row>
+    <row r="363" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E363">
+        <v>0.85075000000000012</v>
+      </c>
+      <c r="J363">
+        <v>0.89524999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E364">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="J364">
+        <v>0.88950000000000007</v>
+      </c>
+    </row>
+    <row r="365" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E365">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="J365">
+        <v>0.82874999999999988</v>
+      </c>
+    </row>
+    <row r="366" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E366">
+        <v>0.89124999999999999</v>
+      </c>
+      <c r="J366">
+        <v>0.8892500000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E367">
+        <v>0.88875000000000004</v>
+      </c>
+      <c r="J367">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="368" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E368">
+        <v>0.82525000000000004</v>
+      </c>
+    </row>
+    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E369">
+        <v>0.88824999999999998</v>
+      </c>
+    </row>
+    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E370">
+        <v>0.89349999999999996</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:I306" xr:uid="{608C72C0-DD9A-4192-B42D-B151CA51A7B4}">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6295,8 +7178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E78BC3C-183A-4B7C-8FDD-53730A365577}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
